--- a/assets/template/5a.xlsx
+++ b/assets/template/5a.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\borang\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54901F56-4000-4D21-92C3-CEC5EBEE0C9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11460"/>
+    <workbookView xWindow="3405" yWindow="3795" windowWidth="19680" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="diploma">#REF!</definedName>
   </definedNames>
@@ -98,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,21 +233,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -274,6 +257,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,113 +288,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Daftar Tabel"/>
-      <sheetName val="PS"/>
-      <sheetName val="1-1"/>
-      <sheetName val="1-2"/>
-      <sheetName val="1-3"/>
-      <sheetName val="2a"/>
-      <sheetName val="2b"/>
-      <sheetName val="3a1"/>
-      <sheetName val="3a2"/>
-      <sheetName val="3a3"/>
-      <sheetName val="3a4"/>
-      <sheetName val="3a5"/>
-      <sheetName val="3b1"/>
-      <sheetName val="3b2"/>
-      <sheetName val="3b3"/>
-      <sheetName val="3b4-1"/>
-      <sheetName val="3b4-2"/>
-      <sheetName val="3b5-1"/>
-      <sheetName val="3b5-2"/>
-      <sheetName val="3b5-3"/>
-      <sheetName val="3b5-4"/>
-      <sheetName val="3b6"/>
-      <sheetName val="3b7"/>
-      <sheetName val="4"/>
-      <sheetName val="5a"/>
-      <sheetName val="5b"/>
-      <sheetName val="5c"/>
-      <sheetName val="6a"/>
-      <sheetName val="6b"/>
-      <sheetName val="7"/>
-      <sheetName val="8a"/>
-      <sheetName val="8b1"/>
-      <sheetName val="8b2"/>
-      <sheetName val="8c"/>
-      <sheetName val="8d1"/>
-      <sheetName val="8d2"/>
-      <sheetName val="8e1"/>
-      <sheetName val="Ref 8e2"/>
-      <sheetName val="8e2"/>
-      <sheetName val="8f1-1"/>
-      <sheetName val="8f1-2"/>
-      <sheetName val="8f2"/>
-      <sheetName val="8f3"/>
-      <sheetName val="8f4-1"/>
-      <sheetName val="8f4-2"/>
-      <sheetName val="8f4-3"/>
-      <sheetName val="8f4-4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -695,7 +586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -708,541 +599,541 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="9" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="9"/>
-    <col min="6" max="6" width="9.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9"/>
-    <col min="8" max="8" width="9.42578125" style="9" customWidth="1"/>
-    <col min="9" max="13" width="9.140625" style="9"/>
-    <col min="14" max="14" width="10" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="9.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="9.42578125" style="4" customWidth="1"/>
+    <col min="9" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="10" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="1" t="s">
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="5">
         <v>4</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="5">
         <v>5</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
         <v>6</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="5">
         <v>7</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="5">
         <v>8</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="5">
         <v>9</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="5">
         <v>10</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="5">
         <v>11</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="5">
         <v>12</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="5">
         <v>13</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="5">
         <v>14</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="14"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="14"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="14"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="14"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="14"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="6">
         <v>6</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="14"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="6">
         <v>7</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="14"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="A17" s="6">
         <v>8</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="14"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="A18" s="6">
         <v>9</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="14"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+      <c r="A19" s="6">
         <v>10</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="14"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+      <c r="A20" s="6">
         <v>11</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="14"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+      <c r="A21" s="6">
         <v>12</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="14"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+      <c r="A22" s="6">
         <v>13</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="14"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+      <c r="A23" s="6">
         <v>14</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="14"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+      <c r="A24" s="6">
         <v>15</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="14"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="6">
         <v>16</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="14"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="6">
         <v>17</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="14"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="9"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="14"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1258,7 +1149,7 @@
     <mergeCell ref="F7:H7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:M27 E10:E27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:M27 E10:E27" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$4:$A$5</formula1>
     </dataValidation>
   </dataValidations>
